--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品购进额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品购进额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1273 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>654.0064</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>4973</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4012.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2342.5</v>
+      </c>
       <c r="E2" t="n">
-        <v>1089.2411</v>
+        <v>7246.6</v>
       </c>
       <c r="F2" t="n">
-        <v>176.0095</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>5638.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2477.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5734.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3506.6</v>
+      </c>
       <c r="J2" t="n">
-        <v>1296.3599</v>
+        <v>30315.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1316.4441</v>
+        <v>9306.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3618.5435</v>
+        <v>7810.2</v>
       </c>
       <c r="M2" t="n">
-        <v>462.0688</v>
+        <v>14856.7</v>
       </c>
       <c r="N2" t="n">
-        <v>5776.8241</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>37516.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>121320.4</v>
+      </c>
       <c r="P2" t="n">
-        <v>754.2782</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>2123.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10424.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2909.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3226.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>47793.8</v>
+      </c>
       <c r="U2" t="n">
-        <v>5685.6151</v>
+        <v>15154.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6974.8808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4765.7547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3406.5195</v>
+      </c>
       <c r="E3" t="n">
-        <v>1245.4348</v>
+        <v>9451.2477</v>
       </c>
       <c r="F3" t="n">
-        <v>174.7872</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>8185.023</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3323.2076</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7028.0317</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4868.0789</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39226.1541</v>
+      </c>
       <c r="K3" t="n">
-        <v>1475.5117</v>
+        <v>11903.0256</v>
       </c>
       <c r="L3" t="n">
-        <v>3541.7188</v>
+        <v>9429.630800000001</v>
       </c>
       <c r="M3" t="n">
-        <v>551.0971</v>
+        <v>21364.2171</v>
       </c>
       <c r="N3" t="n">
-        <v>6705.9992</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>52417.8198</v>
+      </c>
+      <c r="O3" t="n">
+        <v>166180.8005</v>
+      </c>
       <c r="P3" t="n">
-        <v>894.5276</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2759.3439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13431.366</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4454.1997</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3541.1524</v>
+      </c>
+      <c r="T3" t="n">
+        <v>63643.8284</v>
+      </c>
       <c r="U3" t="n">
-        <v>5659.4791</v>
+        <v>19182.5998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6606.73709</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5840.53891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4629.99752</v>
+      </c>
       <c r="E4" t="n">
-        <v>1495.29</v>
+        <v>11143.13964</v>
       </c>
       <c r="F4" t="n">
-        <v>220.93</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>9449.968070000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4670.94525</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7660.79811</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5617.27231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36665.05401</v>
+      </c>
       <c r="K4" t="n">
-        <v>1890.18</v>
+        <v>11785.73212</v>
       </c>
       <c r="L4" t="n">
-        <v>3631.26</v>
+        <v>11053.26397</v>
       </c>
       <c r="M4" t="n">
-        <v>496.58</v>
+        <v>26430.6153</v>
       </c>
       <c r="N4" t="n">
-        <v>6901.95</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>58447.957</v>
+      </c>
+      <c r="O4" t="n">
+        <v>189863.25455</v>
+      </c>
       <c r="P4" t="n">
-        <v>865.4</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>3629.84545</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>22871.53343</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3922.96165</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3683.23726</v>
+      </c>
+      <c r="T4" t="n">
+        <v>68884.31458999999</v>
+      </c>
       <c r="U4" t="n">
-        <v>5696.94</v>
+        <v>22942.42843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1051.63404</v>
+        <v>7969.12782</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.67579</v>
+        <v>7791.31311</v>
       </c>
       <c r="D5" t="n">
-        <v>648.14011</v>
+        <v>4955.62674</v>
       </c>
       <c r="E5" t="n">
-        <v>1837.80877</v>
+        <v>13688.79041</v>
       </c>
       <c r="F5" t="n">
-        <v>506.43092</v>
+        <v>11034.86892</v>
       </c>
       <c r="G5" t="n">
-        <v>723.19827</v>
+        <v>5873.54878</v>
       </c>
       <c r="H5" t="n">
-        <v>638.45865</v>
+        <v>9303.1338</v>
       </c>
       <c r="I5" t="n">
-        <v>1037.49609</v>
+        <v>6400.7476</v>
       </c>
       <c r="J5" t="n">
-        <v>6128.13521</v>
+        <v>42639.38676</v>
       </c>
       <c r="K5" t="n">
-        <v>2224.95926</v>
+        <v>13475.57632</v>
       </c>
       <c r="L5" t="n">
-        <v>4550.53929</v>
+        <v>12134.59817</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7537</v>
+        <v>31020.74392</v>
       </c>
       <c r="N5" t="n">
-        <v>7959.2532</v>
+        <v>66028.1964</v>
       </c>
       <c r="O5" t="n">
-        <v>15639.1129</v>
+        <v>226606.15035</v>
       </c>
       <c r="P5" t="n">
-        <v>651.46762</v>
+        <v>4687.35933</v>
       </c>
       <c r="Q5" t="n">
-        <v>3133.70836</v>
+        <v>27523.36397</v>
       </c>
       <c r="R5" t="n">
-        <v>344.03499</v>
+        <v>4052.31014</v>
       </c>
       <c r="S5" t="n">
-        <v>649.98374</v>
+        <v>4599.30222</v>
       </c>
       <c r="T5" t="n">
-        <v>4380.24294</v>
+        <v>82929.92067000001</v>
       </c>
       <c r="U5" t="n">
-        <v>6355.1422</v>
+        <v>28559.47307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2930.15976</v>
+        <v>8459.58481</v>
       </c>
       <c r="C6" t="n">
-        <v>1801.92658</v>
+        <v>8072.54236</v>
       </c>
       <c r="D6" t="n">
-        <v>1066.59394</v>
+        <v>5394.51473</v>
       </c>
       <c r="E6" t="n">
-        <v>2937.91836</v>
+        <v>15941.5669</v>
       </c>
       <c r="F6" t="n">
-        <v>1458.6724</v>
+        <v>11888.76652</v>
       </c>
       <c r="G6" t="n">
-        <v>1045.9648</v>
+        <v>6393.63745</v>
       </c>
       <c r="H6" t="n">
-        <v>1738.23016</v>
+        <v>9201.13186</v>
       </c>
       <c r="I6" t="n">
-        <v>1759.01296</v>
+        <v>7293.51731</v>
       </c>
       <c r="J6" t="n">
-        <v>11828.1127</v>
+        <v>50094.11255</v>
       </c>
       <c r="K6" t="n">
-        <v>4122.52098</v>
+        <v>17416.67976</v>
       </c>
       <c r="L6" t="n">
-        <v>5466.69103</v>
+        <v>12963.36573</v>
       </c>
       <c r="M6" t="n">
-        <v>2271.166</v>
+        <v>29906.68905</v>
       </c>
       <c r="N6" t="n">
-        <v>17176.9691</v>
+        <v>67033.32567999999</v>
       </c>
       <c r="O6" t="n">
-        <v>37762.45002</v>
+        <v>240713.92706</v>
       </c>
       <c r="P6" t="n">
-        <v>655.56015</v>
+        <v>5028.94682</v>
       </c>
       <c r="Q6" t="n">
-        <v>4638.61796</v>
+        <v>30600.26426</v>
       </c>
       <c r="R6" t="n">
-        <v>1056.28905</v>
+        <v>4304.36857</v>
       </c>
       <c r="S6" t="n">
-        <v>691.96962</v>
+        <v>4714.94422</v>
       </c>
       <c r="T6" t="n">
-        <v>11860.9492</v>
+        <v>91128.77619</v>
       </c>
       <c r="U6" t="n">
-        <v>8013.48917</v>
+        <v>32161.57397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2761.98717</v>
+        <v>7590.7899</v>
       </c>
       <c r="C7" t="n">
-        <v>1750.76606</v>
+        <v>8127.092</v>
       </c>
       <c r="D7" t="n">
-        <v>1214.48021</v>
+        <v>5231.0583</v>
       </c>
       <c r="E7" t="n">
-        <v>3364.08463</v>
+        <v>18011.882</v>
       </c>
       <c r="F7" t="n">
-        <v>1668.85794</v>
+        <v>11297.9853</v>
       </c>
       <c r="G7" t="n">
-        <v>1168.01355</v>
+        <v>7270.1719</v>
       </c>
       <c r="H7" t="n">
-        <v>2260.75814</v>
+        <v>11059.4515</v>
       </c>
       <c r="I7" t="n">
-        <v>2257.68347</v>
+        <v>7194.0657</v>
       </c>
       <c r="J7" t="n">
-        <v>12793.23059</v>
+        <v>52508.9437</v>
       </c>
       <c r="K7" t="n">
-        <v>2547.10214</v>
+        <v>18310.4911</v>
       </c>
       <c r="L7" t="n">
-        <v>5791.99038</v>
+        <v>12779.4308</v>
       </c>
       <c r="M7" t="n">
-        <v>2561.67403</v>
+        <v>24029.4683</v>
       </c>
       <c r="N7" t="n">
-        <v>21705.56377</v>
+        <v>53927.3574</v>
       </c>
       <c r="O7" t="n">
-        <v>46094.61534</v>
+        <v>203628.4107</v>
       </c>
       <c r="P7" t="n">
-        <v>704.15297</v>
+        <v>5185.2318</v>
       </c>
       <c r="Q7" t="n">
-        <v>5644.79858</v>
+        <v>32957.2364</v>
       </c>
       <c r="R7" t="n">
-        <v>1165.15359</v>
+        <v>4337.2545</v>
       </c>
       <c r="S7" t="n">
-        <v>968.10153</v>
+        <v>5173.6205</v>
       </c>
       <c r="T7" t="n">
-        <v>14459.41681</v>
+        <v>79147.2739</v>
       </c>
       <c r="U7" t="n">
-        <v>8834.25864</v>
+        <v>34270.7949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3371.41421</v>
+        <v>7602.467</v>
       </c>
       <c r="C8" t="n">
-        <v>1965.63862</v>
+        <v>8713.522499999999</v>
       </c>
       <c r="D8" t="n">
-        <v>1446.58917</v>
+        <v>4172.808</v>
       </c>
       <c r="E8" t="n">
-        <v>3911.67957</v>
+        <v>20172.3949</v>
       </c>
       <c r="F8" t="n">
-        <v>2517.09788</v>
+        <v>11907.6054</v>
       </c>
       <c r="G8" t="n">
-        <v>1289.66913</v>
+        <v>7769.313</v>
       </c>
       <c r="H8" t="n">
-        <v>2813.09993</v>
+        <v>11423.624</v>
       </c>
       <c r="I8" t="n">
-        <v>2687.3389</v>
+        <v>6211.4294</v>
       </c>
       <c r="J8" t="n">
-        <v>15062.86577</v>
+        <v>61551.2571</v>
       </c>
       <c r="K8" t="n">
-        <v>3559.58884</v>
+        <v>22248.8439</v>
       </c>
       <c r="L8" t="n">
-        <v>5837.75603</v>
+        <v>12064.6251</v>
       </c>
       <c r="M8" t="n">
-        <v>3906.84839</v>
+        <v>23939.5558</v>
       </c>
       <c r="N8" t="n">
-        <v>24742.91811</v>
+        <v>54206.0605</v>
       </c>
       <c r="O8" t="n">
-        <v>61177.92202</v>
+        <v>217315.6163</v>
       </c>
       <c r="P8" t="n">
-        <v>819.09292</v>
+        <v>5790.4784</v>
       </c>
       <c r="Q8" t="n">
-        <v>6888.63478</v>
+        <v>32875.3276</v>
       </c>
       <c r="R8" t="n">
-        <v>1438.8567</v>
+        <v>4853.4321</v>
       </c>
       <c r="S8" t="n">
-        <v>1076.29113</v>
+        <v>5446.4442</v>
       </c>
       <c r="T8" t="n">
-        <v>20029.0431</v>
+        <v>88376.91439999999</v>
       </c>
       <c r="U8" t="n">
-        <v>10088.35195</v>
+        <v>35972.5926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4947.5081</v>
+        <v>7860.385</v>
       </c>
       <c r="C9" t="n">
-        <v>2812.8316</v>
+        <v>8817.028</v>
       </c>
       <c r="D9" t="n">
-        <v>2286.5239</v>
+        <v>4338.576</v>
       </c>
       <c r="E9" t="n">
-        <v>5291.1152</v>
+        <v>24633.187</v>
       </c>
       <c r="F9" t="n">
-        <v>3999.6223</v>
+        <v>13378.243</v>
       </c>
       <c r="G9" t="n">
-        <v>2028.4571</v>
+        <v>9189.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3241.6977</v>
+        <v>14040.23</v>
       </c>
       <c r="I9" t="n">
-        <v>3055.9178</v>
+        <v>6645.362</v>
       </c>
       <c r="J9" t="n">
-        <v>22532.2197</v>
+        <v>69993.712</v>
       </c>
       <c r="K9" t="n">
-        <v>6886.3003</v>
+        <v>25214.709</v>
       </c>
       <c r="L9" t="n">
-        <v>6590.4287</v>
+        <v>12039.081</v>
       </c>
       <c r="M9" t="n">
-        <v>8843.9753</v>
+        <v>27995.04</v>
       </c>
       <c r="N9" t="n">
-        <v>29481.4469</v>
+        <v>67127.28599999999</v>
       </c>
       <c r="O9" t="n">
-        <v>91255.9152</v>
+        <v>269457.586</v>
       </c>
       <c r="P9" t="n">
-        <v>1360.2749</v>
+        <v>6339.059</v>
       </c>
       <c r="Q9" t="n">
-        <v>8703.2055</v>
+        <v>37122.541</v>
       </c>
       <c r="R9" t="n">
-        <v>1948.7689</v>
+        <v>5768.365</v>
       </c>
       <c r="S9" t="n">
-        <v>3244.0902</v>
+        <v>5351.818</v>
       </c>
       <c r="T9" t="n">
-        <v>37502.829</v>
+        <v>113960.813</v>
       </c>
       <c r="U9" t="n">
-        <v>11742.1175</v>
+        <v>35739.234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3404.66266</v>
+        <v>7314</v>
       </c>
       <c r="C10" t="n">
-        <v>2826.7653</v>
+        <v>9729.700000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1969.73196</v>
+        <v>4763.6</v>
       </c>
       <c r="E10" t="n">
-        <v>6163.65541</v>
+        <v>25697.4</v>
       </c>
       <c r="F10" t="n">
-        <v>4129.01896</v>
+        <v>15634.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1805.41579</v>
+        <v>10882.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3751.12268</v>
+        <v>11647.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2870.61576</v>
+        <v>7042.8</v>
       </c>
       <c r="J10" t="n">
-        <v>21766.3498</v>
+        <v>77177.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6275.33233</v>
+        <v>29953</v>
       </c>
       <c r="L10" t="n">
-        <v>7065.9709</v>
+        <v>13036.4</v>
       </c>
       <c r="M10" t="n">
-        <v>9478.38682</v>
+        <v>30974</v>
       </c>
       <c r="N10" t="n">
-        <v>27954.87495</v>
+        <v>75031.2</v>
       </c>
       <c r="O10" t="n">
-        <v>84089.41052999999</v>
+        <v>302271</v>
       </c>
       <c r="P10" t="n">
-        <v>1377.63587</v>
+        <v>6929.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>8164.80837</v>
+        <v>41037.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2447.44498</v>
+        <v>7068.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2556.54857</v>
+        <v>4121.8</v>
       </c>
       <c r="T10" t="n">
-        <v>32087.12947</v>
+        <v>129463.6</v>
       </c>
       <c r="U10" t="n">
-        <v>12231.08098</v>
+        <v>37880.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4973</v>
+        <v>10216.9093</v>
       </c>
       <c r="C11" t="n">
-        <v>4012.2</v>
+        <v>13047.8133</v>
       </c>
       <c r="D11" t="n">
-        <v>2342.5</v>
+        <v>5269.3048</v>
       </c>
       <c r="E11" t="n">
-        <v>7246.6</v>
+        <v>30219.8681</v>
       </c>
       <c r="F11" t="n">
-        <v>5638.7</v>
+        <v>21373.6666</v>
       </c>
       <c r="G11" t="n">
-        <v>2477.7</v>
+        <v>11299.8087</v>
       </c>
       <c r="H11" t="n">
-        <v>5734.3</v>
+        <v>13117.4796</v>
       </c>
       <c r="I11" t="n">
-        <v>3506.6</v>
+        <v>7589.2309</v>
       </c>
       <c r="J11" t="n">
-        <v>30315.2</v>
+        <v>85620.3143</v>
       </c>
       <c r="K11" t="n">
-        <v>9306.1</v>
+        <v>31883.1098</v>
       </c>
       <c r="L11" t="n">
-        <v>7810.2</v>
+        <v>13165.5447</v>
       </c>
       <c r="M11" t="n">
-        <v>14856.7</v>
+        <v>37737.6927</v>
       </c>
       <c r="N11" t="n">
-        <v>37516.8</v>
+        <v>72629.1654</v>
       </c>
       <c r="O11" t="n">
-        <v>121320.4</v>
+        <v>356198.7619</v>
       </c>
       <c r="P11" t="n">
-        <v>2123.5</v>
+        <v>7877.3001</v>
       </c>
       <c r="Q11" t="n">
-        <v>10424.3</v>
+        <v>47000.5651</v>
       </c>
       <c r="R11" t="n">
-        <v>2909.4</v>
+        <v>7268.053</v>
       </c>
       <c r="S11" t="n">
-        <v>3226.1</v>
+        <v>4949.5589</v>
       </c>
       <c r="T11" t="n">
-        <v>47793.8</v>
+        <v>166145.6516</v>
       </c>
       <c r="U11" t="n">
-        <v>15154.7</v>
+        <v>43355.1627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6974.8808</v>
+        <v>13376.6978</v>
       </c>
       <c r="C12" t="n">
-        <v>4765.7547</v>
+        <v>18419.0805</v>
       </c>
       <c r="D12" t="n">
-        <v>3406.5195</v>
+        <v>5537.6852</v>
       </c>
       <c r="E12" t="n">
-        <v>9451.2477</v>
+        <v>32580.9571</v>
       </c>
       <c r="F12" t="n">
-        <v>8185.023</v>
+        <v>25783.1635</v>
       </c>
       <c r="G12" t="n">
-        <v>3323.2076</v>
+        <v>12308.2916</v>
       </c>
       <c r="H12" t="n">
-        <v>7028.0317</v>
+        <v>12871.7136</v>
       </c>
       <c r="I12" t="n">
-        <v>4868.0789</v>
+        <v>7804.824</v>
       </c>
       <c r="J12" t="n">
-        <v>39226.1541</v>
+        <v>98318.8119</v>
       </c>
       <c r="K12" t="n">
-        <v>11903.0256</v>
+        <v>34737.8803</v>
       </c>
       <c r="L12" t="n">
-        <v>9429.630800000001</v>
+        <v>13740.4384</v>
       </c>
       <c r="M12" t="n">
-        <v>21364.2171</v>
+        <v>42343.2102</v>
       </c>
       <c r="N12" t="n">
-        <v>52417.8198</v>
+        <v>66915.72010000001</v>
       </c>
       <c r="O12" t="n">
-        <v>166180.8005</v>
+        <v>409175.2187</v>
       </c>
       <c r="P12" t="n">
-        <v>2759.3439</v>
+        <v>9711.5594</v>
       </c>
       <c r="Q12" t="n">
-        <v>13431.366</v>
+        <v>49706.1053</v>
       </c>
       <c r="R12" t="n">
-        <v>4454.1997</v>
+        <v>10689.7876</v>
       </c>
       <c r="S12" t="n">
-        <v>3541.1524</v>
+        <v>5409.7035</v>
       </c>
       <c r="T12" t="n">
-        <v>63643.8284</v>
+        <v>205208.8115</v>
       </c>
       <c r="U12" t="n">
-        <v>19182.5998</v>
+        <v>49935.4241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6606.73709</v>
+        <v>17144.5319</v>
       </c>
       <c r="C13" t="n">
-        <v>5840.53891</v>
+        <v>24495.4596</v>
       </c>
       <c r="D13" t="n">
-        <v>4629.99752</v>
+        <v>6916.9398</v>
       </c>
       <c r="E13" t="n">
-        <v>11143.13964</v>
+        <v>37452.2571</v>
       </c>
       <c r="F13" t="n">
-        <v>9449.968070000001</v>
+        <v>33027.8509</v>
       </c>
       <c r="G13" t="n">
-        <v>4670.94525</v>
+        <v>15872.1111</v>
       </c>
       <c r="H13" t="n">
-        <v>7660.79811</v>
+        <v>16034.2505</v>
       </c>
       <c r="I13" t="n">
-        <v>5617.27231</v>
+        <v>9426.7675</v>
       </c>
       <c r="J13" t="n">
-        <v>36665.05401</v>
+        <v>115221.5717</v>
       </c>
       <c r="K13" t="n">
-        <v>11785.73212</v>
+        <v>37944.5478</v>
       </c>
       <c r="L13" t="n">
-        <v>11053.26397</v>
+        <v>14329.2937</v>
       </c>
       <c r="M13" t="n">
-        <v>26430.6153</v>
+        <v>70102.2576</v>
       </c>
       <c r="N13" t="n">
-        <v>58447.957</v>
+        <v>89953.8374</v>
       </c>
       <c r="O13" t="n">
-        <v>189863.25455</v>
+        <v>573622.3485</v>
       </c>
       <c r="P13" t="n">
-        <v>3629.84545</v>
+        <v>11792.3157</v>
       </c>
       <c r="Q13" t="n">
-        <v>22871.53343</v>
+        <v>61337.8757</v>
       </c>
       <c r="R13" t="n">
-        <v>3922.96165</v>
+        <v>14297.7679</v>
       </c>
       <c r="S13" t="n">
-        <v>3683.23726</v>
+        <v>6353.9896</v>
       </c>
       <c r="T13" t="n">
-        <v>68884.31458999999</v>
+        <v>283403.6342</v>
       </c>
       <c r="U13" t="n">
-        <v>22942.42843</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7969.12782</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7791.31311</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4955.62674</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13688.79041</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11034.86892</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5873.54878</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9303.1338</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6400.7476</v>
-      </c>
-      <c r="J14" t="n">
-        <v>42639.38676</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13475.57632</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12134.59817</v>
-      </c>
-      <c r="M14" t="n">
-        <v>31020.74392</v>
-      </c>
-      <c r="N14" t="n">
-        <v>66028.1964</v>
-      </c>
-      <c r="O14" t="n">
-        <v>226606.15035</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4687.35933</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>27523.36397</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4052.31014</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4599.30222</v>
-      </c>
-      <c r="T14" t="n">
-        <v>82929.92067000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>28559.47307</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8459.58481</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8072.54236</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5394.51473</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15941.5669</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11888.76652</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6393.63745</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9201.13186</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7293.51731</v>
-      </c>
-      <c r="J15" t="n">
-        <v>50094.11255</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17416.67976</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12963.36573</v>
-      </c>
-      <c r="M15" t="n">
-        <v>29906.68905</v>
-      </c>
-      <c r="N15" t="n">
-        <v>67033.32567999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>240713.92706</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5028.94682</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>30600.26426</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4304.36857</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4714.94422</v>
-      </c>
-      <c r="T15" t="n">
-        <v>91128.77619</v>
-      </c>
-      <c r="U15" t="n">
-        <v>32161.57397</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7590.7899</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8127.092</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5231.0583</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18011.882</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11297.9853</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7270.1719</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11059.4515</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7194.0657</v>
-      </c>
-      <c r="J16" t="n">
-        <v>52508.9437</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18310.4911</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12779.4308</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24029.4683</v>
-      </c>
-      <c r="N16" t="n">
-        <v>53927.3574</v>
-      </c>
-      <c r="O16" t="n">
-        <v>203628.4107</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5185.2318</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>32957.2364</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4337.2545</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5173.6205</v>
-      </c>
-      <c r="T16" t="n">
-        <v>79147.2739</v>
-      </c>
-      <c r="U16" t="n">
-        <v>34270.7949</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7602.467</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8713.522499999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4172.808</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20172.3949</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11907.6054</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7769.313</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11423.624</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6211.4294</v>
-      </c>
-      <c r="J17" t="n">
-        <v>61551.2571</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22248.8439</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12064.6251</v>
-      </c>
-      <c r="M17" t="n">
-        <v>23939.5558</v>
-      </c>
-      <c r="N17" t="n">
-        <v>54206.0605</v>
-      </c>
-      <c r="O17" t="n">
-        <v>217315.6163</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5790.4784</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>32875.3276</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4853.4321</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5446.4442</v>
-      </c>
-      <c r="T17" t="n">
-        <v>88376.91439999999</v>
-      </c>
-      <c r="U17" t="n">
-        <v>35972.5926</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7860.385</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8817.028</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4338.576</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24633.187</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13378.243</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9189.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>14040.23</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6645.362</v>
-      </c>
-      <c r="J18" t="n">
-        <v>69993.712</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25214.709</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12039.081</v>
-      </c>
-      <c r="M18" t="n">
-        <v>27995.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>67127.28599999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>269457.586</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6339.059</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>37122.541</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5768.365</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5351.818</v>
-      </c>
-      <c r="T18" t="n">
-        <v>113960.813</v>
-      </c>
-      <c r="U18" t="n">
-        <v>35739.234</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7314</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9729.700000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4763.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25697.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15634.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10882.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11647.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7042.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>77177.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29953</v>
-      </c>
-      <c r="L19" t="n">
-        <v>13036.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>30974</v>
-      </c>
-      <c r="N19" t="n">
-        <v>75031.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>302271</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6929.9</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>41037.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>7068.3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4121.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>129463.6</v>
-      </c>
-      <c r="U19" t="n">
-        <v>37880.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10216.9093</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13047.8133</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5269.3048</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30219.8681</v>
-      </c>
-      <c r="F20" t="n">
-        <v>21373.6666</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11299.8087</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13117.4796</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7589.2309</v>
-      </c>
-      <c r="J20" t="n">
-        <v>85620.3143</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31883.1098</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13165.5447</v>
-      </c>
-      <c r="M20" t="n">
-        <v>37737.6927</v>
-      </c>
-      <c r="N20" t="n">
-        <v>72629.1654</v>
-      </c>
-      <c r="O20" t="n">
-        <v>356198.7619</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7877.3001</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>47000.5651</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7268.053</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4949.5589</v>
-      </c>
-      <c r="T20" t="n">
-        <v>166145.6516</v>
-      </c>
-      <c r="U20" t="n">
-        <v>43355.1627</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>13376.6978</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18419.0805</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5537.6852</v>
-      </c>
-      <c r="E21" t="n">
-        <v>32580.9571</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25783.1635</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12308.2916</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12871.7136</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7804.824</v>
-      </c>
-      <c r="J21" t="n">
-        <v>98318.8119</v>
-      </c>
-      <c r="K21" t="n">
-        <v>34737.8803</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13740.4384</v>
-      </c>
-      <c r="M21" t="n">
-        <v>42343.2102</v>
-      </c>
-      <c r="N21" t="n">
-        <v>66915.72010000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>409175.2187</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9711.5594</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>49706.1053</v>
-      </c>
-      <c r="R21" t="n">
-        <v>10689.7876</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5409.7035</v>
-      </c>
-      <c r="T21" t="n">
-        <v>205208.8115</v>
-      </c>
-      <c r="U21" t="n">
-        <v>49935.4241</v>
+        <v>60349.5919</v>
       </c>
     </row>
   </sheetData>
